--- a/高数/考题知识点.xlsx
+++ b/高数/考题知识点.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
   <si>
     <t>复合函数的定义域求法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,130 @@
   </si>
   <si>
     <t>矩阵的乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应行乘对应列的和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果是A行B列的方阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB只有A的行数等于B的列数才能乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价无穷小替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛必达法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消去零因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接代入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求函数的导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反三角函数的导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数导数的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可导与连续的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续的定义，连续的必要条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数求导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个重要极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数函数的定义域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数函数的值的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数单调与其导数的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数单调的必要条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑微分保持原始不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原函数求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑微分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求解定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分基本公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定积分的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反正切函数在特殊点的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反三角函数的原函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定积分的定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -535,7 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1287,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,14 +1422,14 @@
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="69.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1320,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1335,7 +1458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1350,7 +1473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1365,7 +1488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1380,7 +1503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1392,7 +1515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1407,7 +1530,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1422,7 +1545,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1440,7 +1563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1458,7 +1581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1476,7 +1599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1497,7 +1620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1515,7 +1638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1526,49 +1649,151 @@
       <c r="D14" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -1576,7 +1801,6 @@
       <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="D21" s="9"/>
       <c r="H21" s="11"/>
     </row>
@@ -1584,18 +1808,13 @@
       <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/高数/考题知识点.xlsx
+++ b/高数/考题知识点.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="202008" sheetId="1" r:id="rId1"/>
     <sheet name="202010" sheetId="3" r:id="rId2"/>
+    <sheet name="202104" sheetId="4" r:id="rId3"/>
+    <sheet name="202110" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="244">
   <si>
     <t>复合函数的定义域求法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +525,478 @@
   </si>
   <si>
     <t>不定积分的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据函数画图形，注意微元是x还是y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转体的体积计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微元法列积分式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求原函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分基本公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数求导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的闭区间连续、开区间可导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的驻点的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数最大值与最小值的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式的初等变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最简行列式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式化简后与原方程组的变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解每个未知量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由未知量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期函数的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的周期性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数求极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级数的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级数的敛散性判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分对区间的可加性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转置矩阵与矩阵的行列式的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由复合函数求复合前函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当x趋于x0时的极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数平方的导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数求导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数的定义的等价形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带绝对值的定积分计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式去掉绝对值符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分基本公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数所围成的图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微元法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求不定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶行列式计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代数余子式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解二阶矩阵的方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定式求极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛必达法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数函数的导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导函数与导数的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求曲线切线与直线平行的点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数的几何意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部积分法求函数乘积的不定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数单调与导数的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数单调的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合函数的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐次方程组仅有零解 D不等于零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶行列式的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极值的必要条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极值的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数所围成的图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列定积分式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分基本公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明函数大小关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数大小关系的变换表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明的步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据函数求围成图形旋转体的体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画函数图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐次线性方程组有非零解与系数行列式的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数行列式等于零有非零解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求行列式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求解不定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘积形式的不定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部积分法或第二类换元法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数极值的必要条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数极值的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数求导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合函数的求导链式法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合函数的求导方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分基本公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数商的求导法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数求导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定式极限的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛必达法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的幂次方的行列式与矩阵行列式式的幂次方的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初等变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式的对角线法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式计算方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对角线法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据函数求围成图形的面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画函数图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微元法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分基本公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求定积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n阶导数的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找求导的过程中的表现出来的规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切线斜率与法线斜率的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切线斜率与导数的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数求导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无穷小量和无穷大量的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次根式的定义域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然对数的定义域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等式的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数定义域的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵乘法的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵乘法的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶函数积分上下限互为相反数积分值为零，奇函数为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级数收敛的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无穷乘无穷小的极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个重要极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化为两个重要极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解方程，代入重要极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有界函数的定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +1067,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -642,11 +1116,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -659,6 +1157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1412,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1801,20 +2301,900 @@
       <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f>+D75</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
